--- a/logout/checklist.xlsx
+++ b/logout/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/logout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{120A34C8-C762-6442-9591-1856371646C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{770F42B2-E2C4-BC44-B623-4657B8500696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BF3897E8-BD49-D940-8EA7-942FDC32FFA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A37"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,27 +597,25 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1993</v>
-      </c>
-      <c r="B7" t="str">
-        <f>CONCATENATE(LEFT(E7, 4), "/", RIGHT(LEFT(E7, 6), 1))</f>
-        <v>1993/6</v>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1993</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" ref="B8:B37" si="0">CONCATENATE(LEFT(E8, 4), "/", RIGHT(LEFT(E8, 6), 1))</f>
-        <v>1993/7</v>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -625,11 +623,11 @@
         <v>1993</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>1993/8</v>
+        <f>CONCATENATE(LEFT(E9, 4), "/", RIGHT(LEFT(E9, 6), 1))</f>
+        <v>1993/6</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,11 +635,11 @@
         <v>1993</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>1993/9</v>
+        <f t="shared" ref="B10:B36" si="0">CONCATENATE(LEFT(E10, 4), "/", RIGHT(LEFT(E10, 6), 1))</f>
+        <v>1993/7</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -649,11 +647,11 @@
         <v>1993</v>
       </c>
       <c r="B11" t="str">
-        <f>CONCATENATE(LEFT(E11, 4), "/", RIGHT(LEFT(E11, 6), 2))</f>
-        <v>1993/10</v>
+        <f t="shared" si="0"/>
+        <v>1993/8</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,11 +659,11 @@
         <v>1993</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" ref="B12:B13" si="1">CONCATENATE(LEFT(E12, 4), "/", RIGHT(LEFT(E12, 6), 2))</f>
-        <v>1993/11</v>
+        <f t="shared" si="0"/>
+        <v>1993/9</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -673,35 +671,35 @@
         <v>1993</v>
       </c>
       <c r="B13" t="str">
+        <f>CONCATENATE(LEFT(E13, 4), "/", RIGHT(LEFT(E13, 6), 2))</f>
+        <v>1993/10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1993</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ref="B14:B15" si="1">CONCATENATE(LEFT(E14, 4), "/", RIGHT(LEFT(E14, 6), 2))</f>
+        <v>1993/11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>1993/12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1994</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>1994/1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1994</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>1994/2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -710,10 +708,10 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>1994/3</v>
+        <v>1994/1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -722,10 +720,10 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>1994/4</v>
+        <v>1994/2</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -734,10 +732,10 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>1994/5</v>
+        <v>1994/3</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,10 +744,10 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>1994/6</v>
+        <v>1994/4</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -758,10 +756,10 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>1994/7</v>
+        <v>1994/5</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -770,10 +768,10 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>1994/8</v>
+        <v>1994/6</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,10 +780,10 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>1994/9</v>
+        <v>1994/7</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,11 +791,11 @@
         <v>1994</v>
       </c>
       <c r="B23" t="str">
-        <f>CONCATENATE(LEFT(E23, 4), "/", RIGHT(LEFT(E23, 6), 2))</f>
-        <v>1994/10</v>
+        <f t="shared" si="0"/>
+        <v>1994/8</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -805,11 +803,11 @@
         <v>1994</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B25" si="2">CONCATENATE(LEFT(E24, 4), "/", RIGHT(LEFT(E24, 6), 2))</f>
-        <v>1994/11</v>
+        <f t="shared" si="0"/>
+        <v>1994/9</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -817,35 +815,35 @@
         <v>1994</v>
       </c>
       <c r="B25" t="str">
+        <f>CONCATENATE(LEFT(E25, 4), "/", RIGHT(LEFT(E25, 6), 2))</f>
+        <v>1994/10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1994</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" ref="B26:B27" si="2">CONCATENATE(LEFT(E26, 4), "/", RIGHT(LEFT(E26, 6), 2))</f>
+        <v>1994/11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1994</v>
+      </c>
+      <c r="B27" t="str">
         <f t="shared" si="2"/>
         <v>1994/12</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1995</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>1995/1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1995</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>1995/2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -854,10 +852,10 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>1995/3</v>
+        <v>1995/1</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,10 +864,10 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>1995/4</v>
+        <v>1995/2</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -878,10 +876,10 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>1995/5</v>
+        <v>1995/3</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -890,10 +888,10 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>1995/6</v>
+        <v>1995/4</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -902,10 +900,10 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>1995/7</v>
+        <v>1995/5</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -914,10 +912,10 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>1995/8</v>
+        <v>1995/6</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -926,10 +924,10 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>1995/9</v>
+        <v>1995/7</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -937,11 +935,11 @@
         <v>1995</v>
       </c>
       <c r="B35" t="str">
-        <f>CONCATENATE(LEFT(E35, 4), "/", RIGHT(LEFT(E35, 6), 2))</f>
-        <v>1995/10</v>
+        <f t="shared" si="0"/>
+        <v>1995/8</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -949,11 +947,11 @@
         <v>1995</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" ref="B36:B37" si="3">CONCATENATE(LEFT(E36, 4), "/", RIGHT(LEFT(E36, 6), 2))</f>
-        <v>1995/11</v>
+        <f t="shared" si="0"/>
+        <v>1995/9</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -961,33 +959,35 @@
         <v>1995</v>
       </c>
       <c r="B37" t="str">
+        <f>CONCATENATE(LEFT(E37, 4), "/", RIGHT(LEFT(E37, 6), 2))</f>
+        <v>1995/10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1995</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" ref="B38:B39" si="3">CONCATENATE(LEFT(E38, 4), "/", RIGHT(LEFT(E38, 6), 2))</f>
+        <v>1995/11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1995</v>
+      </c>
+      <c r="B39" t="str">
         <f t="shared" si="3"/>
         <v>1995/12</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/logout/checklist.xlsx
+++ b/logout/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/logout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770F42B2-E2C4-BC44-B623-4657B8500696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B0A88-8CF2-0A4B-9C95-AD05995E4B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BF3897E8-BD49-D940-8EA7-942FDC32FFA6}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -174,14 +174,31 @@
   </si>
   <si>
     <t>ロクアウト・ノベルスペシャル</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -209,8 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7D0DAD-E3CF-004E-8C01-3D625CF2933B}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="F2" sqref="F2:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,86 +557,131 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1993</v>
       </c>
@@ -626,11 +689,17 @@
         <f>CONCATENATE(LEFT(E9, 4), "/", RIGHT(LEFT(E9, 6), 1))</f>
         <v>1993/6</v>
       </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -638,11 +707,17 @@
         <f t="shared" ref="B10:B36" si="0">CONCATENATE(LEFT(E10, 4), "/", RIGHT(LEFT(E10, 6), 1))</f>
         <v>1993/7</v>
       </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1993</v>
       </c>
@@ -650,11 +725,17 @@
         <f t="shared" si="0"/>
         <v>1993/8</v>
       </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1993</v>
       </c>
@@ -662,11 +743,17 @@
         <f t="shared" si="0"/>
         <v>1993/9</v>
       </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1993</v>
       </c>
@@ -674,11 +761,17 @@
         <f>CONCATENATE(LEFT(E13, 4), "/", RIGHT(LEFT(E13, 6), 2))</f>
         <v>1993/10</v>
       </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1993</v>
       </c>
@@ -686,11 +779,17 @@
         <f t="shared" ref="B14:B15" si="1">CONCATENATE(LEFT(E14, 4), "/", RIGHT(LEFT(E14, 6), 2))</f>
         <v>1993/11</v>
       </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1993</v>
       </c>
@@ -698,11 +797,17 @@
         <f t="shared" si="1"/>
         <v>1993/12</v>
       </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -710,11 +815,17 @@
         <f t="shared" si="0"/>
         <v>1994/1</v>
       </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1994</v>
       </c>
@@ -722,11 +833,17 @@
         <f t="shared" si="0"/>
         <v>1994/2</v>
       </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1994</v>
       </c>
@@ -734,11 +851,17 @@
         <f t="shared" si="0"/>
         <v>1994/3</v>
       </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -746,11 +869,17 @@
         <f t="shared" si="0"/>
         <v>1994/4</v>
       </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1994</v>
       </c>
@@ -758,11 +887,17 @@
         <f t="shared" si="0"/>
         <v>1994/5</v>
       </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
       <c r="E20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1994</v>
       </c>
@@ -770,11 +905,17 @@
         <f t="shared" si="0"/>
         <v>1994/6</v>
       </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1994</v>
       </c>
@@ -782,11 +923,17 @@
         <f t="shared" si="0"/>
         <v>1994/7</v>
       </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1994</v>
       </c>
@@ -794,11 +941,17 @@
         <f t="shared" si="0"/>
         <v>1994/8</v>
       </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
       <c r="E23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1994</v>
       </c>
@@ -806,11 +959,17 @@
         <f t="shared" si="0"/>
         <v>1994/9</v>
       </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1994</v>
       </c>
@@ -818,11 +977,17 @@
         <f>CONCATENATE(LEFT(E25, 4), "/", RIGHT(LEFT(E25, 6), 2))</f>
         <v>1994/10</v>
       </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1994</v>
       </c>
@@ -830,11 +995,17 @@
         <f t="shared" ref="B26:B27" si="2">CONCATENATE(LEFT(E26, 4), "/", RIGHT(LEFT(E26, 6), 2))</f>
         <v>1994/11</v>
       </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
       <c r="E26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1994</v>
       </c>
@@ -842,11 +1013,17 @@
         <f t="shared" si="2"/>
         <v>1994/12</v>
       </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1995</v>
       </c>
@@ -854,11 +1031,17 @@
         <f t="shared" si="0"/>
         <v>1995/1</v>
       </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1995</v>
       </c>
@@ -866,11 +1049,17 @@
         <f t="shared" si="0"/>
         <v>1995/2</v>
       </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -878,11 +1067,17 @@
         <f t="shared" si="0"/>
         <v>1995/3</v>
       </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
       <c r="E30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1995</v>
       </c>
@@ -890,11 +1085,17 @@
         <f t="shared" si="0"/>
         <v>1995/4</v>
       </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1995</v>
       </c>
@@ -902,11 +1103,17 @@
         <f t="shared" si="0"/>
         <v>1995/5</v>
       </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1995</v>
       </c>
@@ -914,11 +1121,17 @@
         <f t="shared" si="0"/>
         <v>1995/6</v>
       </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1995</v>
       </c>
@@ -926,11 +1139,17 @@
         <f t="shared" si="0"/>
         <v>1995/7</v>
       </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
       <c r="E34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1995</v>
       </c>
@@ -938,11 +1157,17 @@
         <f t="shared" si="0"/>
         <v>1995/8</v>
       </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1995</v>
       </c>
@@ -950,11 +1175,17 @@
         <f t="shared" si="0"/>
         <v>1995/9</v>
       </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
       <c r="E36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1995</v>
       </c>
@@ -962,11 +1193,17 @@
         <f>CONCATENATE(LEFT(E37, 4), "/", RIGHT(LEFT(E37, 6), 2))</f>
         <v>1995/10</v>
       </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1995</v>
       </c>
@@ -974,11 +1211,17 @@
         <f t="shared" ref="B38:B39" si="3">CONCATENATE(LEFT(E38, 4), "/", RIGHT(LEFT(E38, 6), 2))</f>
         <v>1995/11</v>
       </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1995</v>
       </c>
@@ -986,8 +1229,14 @@
         <f t="shared" si="3"/>
         <v>1995/12</v>
       </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
       <c r="E39" t="s">
         <v>40</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/logout/checklist.xlsx
+++ b/logout/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/logout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B0A88-8CF2-0A4B-9C95-AD05995E4B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F60C6-E811-4746-A22A-C3E98BE3F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BF3897E8-BD49-D940-8EA7-942FDC32FFA6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{BF3897E8-BD49-D940-8EA7-942FDC32FFA6}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>year</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>periodical</t>
+  </si>
+  <si>
+    <t>06.jpg</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7D0DAD-E3CF-004E-8C01-3D625CF2933B}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F39"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,17 +651,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -666,34 +666,33 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1993</v>
-      </c>
-      <c r="B9" t="str">
-        <f>CONCATENATE(LEFT(E9, 4), "/", RIGHT(LEFT(E9, 6), 1))</f>
-        <v>1993/6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -704,14 +703,14 @@
         <v>1993</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" ref="B10:B36" si="0">CONCATENATE(LEFT(E10, 4), "/", RIGHT(LEFT(E10, 6), 1))</f>
-        <v>1993/7</v>
+        <f>CONCATENATE(LEFT(E10, 4), "/", RIGHT(LEFT(E10, 6), 1))</f>
+        <v>1993/6</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -722,14 +721,14 @@
         <v>1993</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>1993/8</v>
+        <f t="shared" ref="B11:B37" si="0">CONCATENATE(LEFT(E11, 4), "/", RIGHT(LEFT(E11, 6), 1))</f>
+        <v>1993/7</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -741,13 +740,13 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>1993/9</v>
+        <v>1993/8</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -758,14 +757,14 @@
         <v>1993</v>
       </c>
       <c r="B13" t="str">
-        <f>CONCATENATE(LEFT(E13, 4), "/", RIGHT(LEFT(E13, 6), 2))</f>
-        <v>1993/10</v>
+        <f t="shared" si="0"/>
+        <v>1993/9</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
@@ -776,14 +775,14 @@
         <v>1993</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" ref="B14:B15" si="1">CONCATENATE(LEFT(E14, 4), "/", RIGHT(LEFT(E14, 6), 2))</f>
-        <v>1993/11</v>
+        <f>CONCATENATE(LEFT(E14, 4), "/", RIGHT(LEFT(E14, 6), 2))</f>
+        <v>1993/10</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -794,32 +793,32 @@
         <v>1993</v>
       </c>
       <c r="B15" t="str">
+        <f t="shared" ref="B15:B16" si="1">CONCATENATE(LEFT(E15, 4), "/", RIGHT(LEFT(E15, 6), 2))</f>
+        <v>1993/11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1993</v>
+      </c>
+      <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>1993/12</v>
       </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1994</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>1994/1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -831,13 +830,13 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>1994/2</v>
+        <v>1994/1</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
@@ -849,13 +848,13 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>1994/3</v>
+        <v>1994/2</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -867,13 +866,13 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>1994/4</v>
+        <v>1994/3</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>49</v>
@@ -885,13 +884,13 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>1994/5</v>
+        <v>1994/4</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -903,13 +902,13 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>1994/6</v>
+        <v>1994/5</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -921,13 +920,13 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>1994/7</v>
+        <v>1994/6</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -939,13 +938,13 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>1994/8</v>
+        <v>1994/7</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -957,13 +956,13 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>1994/9</v>
+        <v>1994/8</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -974,14 +973,14 @@
         <v>1994</v>
       </c>
       <c r="B25" t="str">
-        <f>CONCATENATE(LEFT(E25, 4), "/", RIGHT(LEFT(E25, 6), 2))</f>
-        <v>1994/10</v>
+        <f t="shared" si="0"/>
+        <v>1994/9</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -992,14 +991,14 @@
         <v>1994</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" ref="B26:B27" si="2">CONCATENATE(LEFT(E26, 4), "/", RIGHT(LEFT(E26, 6), 2))</f>
-        <v>1994/11</v>
+        <f>CONCATENATE(LEFT(E26, 4), "/", RIGHT(LEFT(E26, 6), 2))</f>
+        <v>1994/10</v>
       </c>
       <c r="D26" t="s">
         <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -1010,32 +1009,32 @@
         <v>1994</v>
       </c>
       <c r="B27" t="str">
+        <f t="shared" ref="B27:B28" si="2">CONCATENATE(LEFT(E27, 4), "/", RIGHT(LEFT(E27, 6), 2))</f>
+        <v>1994/11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1994</v>
+      </c>
+      <c r="B28" t="str">
         <f t="shared" si="2"/>
         <v>1994/12</v>
       </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
         <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1995</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>1995/1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
@@ -1047,13 +1046,13 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>1995/2</v>
+        <v>1995/1</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
@@ -1065,13 +1064,13 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>1995/3</v>
+        <v>1995/2</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
@@ -1083,13 +1082,13 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>1995/4</v>
+        <v>1995/3</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -1101,13 +1100,13 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>1995/5</v>
+        <v>1995/4</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -1119,13 +1118,13 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>1995/6</v>
+        <v>1995/5</v>
       </c>
       <c r="D33" t="s">
         <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -1137,13 +1136,13 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>1995/7</v>
+        <v>1995/6</v>
       </c>
       <c r="D34" t="s">
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -1155,13 +1154,13 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>1995/8</v>
+        <v>1995/7</v>
       </c>
       <c r="D35" t="s">
         <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
         <v>49</v>
@@ -1173,13 +1172,13 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>1995/9</v>
+        <v>1995/8</v>
       </c>
       <c r="D36" t="s">
         <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
@@ -1190,14 +1189,14 @@
         <v>1995</v>
       </c>
       <c r="B37" t="str">
-        <f>CONCATENATE(LEFT(E37, 4), "/", RIGHT(LEFT(E37, 6), 2))</f>
-        <v>1995/10</v>
+        <f t="shared" si="0"/>
+        <v>1995/9</v>
       </c>
       <c r="D37" t="s">
         <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
@@ -1208,14 +1207,14 @@
         <v>1995</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" ref="B38:B39" si="3">CONCATENATE(LEFT(E38, 4), "/", RIGHT(LEFT(E38, 6), 2))</f>
-        <v>1995/11</v>
+        <f>CONCATENATE(LEFT(E38, 4), "/", RIGHT(LEFT(E38, 6), 2))</f>
+        <v>1995/10</v>
       </c>
       <c r="D38" t="s">
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
@@ -1226,16 +1225,34 @@
         <v>1995</v>
       </c>
       <c r="B39" t="str">
+        <f t="shared" ref="B39:B40" si="3">CONCATENATE(LEFT(E39, 4), "/", RIGHT(LEFT(E39, 6), 2))</f>
+        <v>1995/11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1995</v>
+      </c>
+      <c r="B40" t="str">
         <f t="shared" si="3"/>
         <v>1995/12</v>
       </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
         <v>40</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>49</v>
       </c>
     </row>
